--- a/Banco Central/12/1/1/Trimestral 1990 a 2021 - Trimestral.xlsx
+++ b/Banco Central/12/1/1/Trimestral 1990 a 2021 - Trimestral.xlsx
@@ -7232,10 +7232,10 @@
         <v>134</v>
       </c>
       <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114">
         <v>3.1</v>
-      </c>
-      <c r="C114">
-        <v>3.8</v>
       </c>
       <c r="D114">
         <v>1.1</v>
@@ -7250,7 +7250,7 @@
         <v>2.5</v>
       </c>
       <c r="H114">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I114">
         <v>3</v>
@@ -7303,7 +7303,7 @@
         <v>3.3</v>
       </c>
       <c r="C115">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D115">
         <v>1.2</v>
@@ -7318,7 +7318,7 @@
         <v>2.2</v>
       </c>
       <c r="H115">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I115">
         <v>3.1</v>
@@ -7371,7 +7371,7 @@
         <v>3.1</v>
       </c>
       <c r="C116">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="D116">
         <v>1.4</v>
@@ -7386,7 +7386,7 @@
         <v>1.6</v>
       </c>
       <c r="H116">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I116">
         <v>2.4</v>
@@ -7436,10 +7436,10 @@
         <v>137</v>
       </c>
       <c r="B117">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="C117">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="D117">
         <v>1.2</v>
@@ -7504,10 +7504,10 @@
         <v>138</v>
       </c>
       <c r="B118">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="C118">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="D118">
         <v>1.7</v>
@@ -7519,10 +7519,10 @@
         <v>1.4</v>
       </c>
       <c r="G118">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H118">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="I118">
         <v>1.8</v>
@@ -7572,10 +7572,10 @@
         <v>139</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="C119">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="D119">
         <v>1.5</v>
@@ -7587,10 +7587,10 @@
         <v>0.5</v>
       </c>
       <c r="G119">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I119">
         <v>2.1</v>
@@ -7640,10 +7640,10 @@
         <v>140</v>
       </c>
       <c r="B120">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="C120">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D120">
         <v>1.4</v>
@@ -7655,7 +7655,7 @@
         <v>0.5</v>
       </c>
       <c r="G120">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H120">
         <v>0.8</v>
@@ -7708,10 +7708,10 @@
         <v>141</v>
       </c>
       <c r="B121">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="C121">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="D121">
         <v>1.2</v>
@@ -7726,7 +7726,7 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>2.3</v>
@@ -7776,10 +7776,10 @@
         <v>142</v>
       </c>
       <c r="B122">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="C122">
-        <v>-5</v>
+        <v>-5.1</v>
       </c>
       <c r="D122">
         <v>-2.2</v>
@@ -7791,10 +7791,10 @@
         <v>-2</v>
       </c>
       <c r="G122">
-        <v>-3.3</v>
+        <v>-3.2</v>
       </c>
       <c r="H122">
-        <v>-14.5</v>
+        <v>-13.6</v>
       </c>
       <c r="I122">
         <v>1.5</v>
@@ -7844,10 +7844,10 @@
         <v>143</v>
       </c>
       <c r="B123">
-        <v>-9</v>
+        <v>-9.1</v>
       </c>
       <c r="C123">
-        <v>-31.4</v>
+        <v>-31.2</v>
       </c>
       <c r="D123">
         <v>-21.4</v>
@@ -7859,10 +7859,10 @@
         <v>-28.6</v>
       </c>
       <c r="G123">
-        <v>-14.6</v>
+        <v>-14.4</v>
       </c>
       <c r="H123">
-        <v>-38.6</v>
+        <v>-38.5</v>
       </c>
       <c r="I123">
         <v>-2.5</v>
@@ -7912,10 +7912,10 @@
         <v>144</v>
       </c>
       <c r="B124">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="C124">
-        <v>33.4</v>
+        <v>33.8</v>
       </c>
       <c r="D124">
         <v>-8.5</v>
@@ -7927,10 +7927,10 @@
         <v>22.9</v>
       </c>
       <c r="G124">
-        <v>-4.1</v>
+        <v>-4</v>
       </c>
       <c r="H124">
-        <v>60.6</v>
+        <v>59.9</v>
       </c>
       <c r="I124">
         <v>-0.8</v>
@@ -7980,10 +7980,10 @@
         <v>145</v>
       </c>
       <c r="B125">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="C125">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="D125">
         <v>-7.3</v>
@@ -7995,10 +7995,10 @@
         <v>11.7</v>
       </c>
       <c r="G125">
-        <v>-4.7</v>
+        <v>-4.6</v>
       </c>
       <c r="H125">
-        <v>-2.4</v>
+        <v>-2.5</v>
       </c>
       <c r="I125">
         <v>-0.7</v>
@@ -8048,10 +8048,10 @@
         <v>146</v>
       </c>
       <c r="B126">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C126">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="D126">
         <v>-6.1</v>
@@ -8115,8 +8115,32 @@
       <c r="A127" t="s">
         <v>147</v>
       </c>
+      <c r="B127">
+        <v>12.2</v>
+      </c>
+      <c r="C127">
+        <v>6.5</v>
+      </c>
+      <c r="G127">
+        <v>13.7</v>
+      </c>
+      <c r="H127">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="I127">
+        <v>5.9</v>
+      </c>
       <c r="J127">
         <v>7.9</v>
+      </c>
+      <c r="M127">
+        <v>7.8</v>
+      </c>
+      <c r="P127">
+        <v>7.5</v>
+      </c>
+      <c r="U127">
+        <v>19.7</v>
       </c>
     </row>
   </sheetData>
